--- a/caloric_data.xlsx
+++ b/caloric_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capta\Desktop\first year\SECOND YEAR\second sem\cp317\CP317Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24081CC-C9CB-4A0F-B6AB-45975FA0A3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CD4F6F-AC84-42FC-9C6A-A935A37E525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{73AD88F9-C55C-4DCA-BAB9-E751793B7113}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11445" xr2:uid="{73AD88F9-C55C-4DCA-BAB9-E751793B7113}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
